--- a/biology/Mycologie/Cyproconazole/Cyproconazole.xlsx
+++ b/biology/Mycologie/Cyproconazole/Cyproconazole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le cyproconazole est une substance active de produit phytosanitaire (ou produit phytopharmaceutique, ou pesticide), qui présente un effet fongicide, et qui appartient à la famille chimique des triazoles.
@@ -512,10 +524,12 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sur le plan de la réglementation des produits phytopharmaceutiques :
-pour l’Union européenne : cette substance active est en révision en vue de l'inscription à l’annexe I de la directive 91/414/CEE et le taux de résidus de ce pesticide dans les aliments est réglementé en Europe (réglementation 2012[3]).
+pour l’Union européenne : cette substance active est en révision en vue de l'inscription à l’annexe I de la directive 91/414/CEE et le taux de résidus de ce pesticide dans les aliments est réglementé en Europe (réglementation 2012).
 pour la France : cette substance active est autorisée dans la composition de préparations bénéficiant d’une autorisation de mise sur le marché.</t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Caractéristiques physico-chimiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les caractéristiques physico-chimiques dont l'ordre de grandeur est indiqué ci-après, influencent les risques de transfert de cette substance active vers les eaux, et le risque de pollution des eaux :
 Hydrolyse à pH 7 : très stable,
@@ -579,7 +595,9 @@
           <t>Écotoxicologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sur le plan de l’écotoxicologie, les concentrations létales 50 (CL50 ou DL50) dont l'ordre de grandeur est indiqué ci-après, sont observées :
 CL50 sur poissons : 7,2 mg L−1,
@@ -612,7 +630,9 @@
           <t>Toxicité pour l’homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur le plan de la toxicité pour l’homme, la dose journalière admissible (DJA) est de l’ordre de : 0,01 mg kg−1 j−1.
 </t>
